--- a/CS4013ProjectTeamContributions .xlsx
+++ b/CS4013ProjectTeamContributions .xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c039bbc74bea8032/SEM2/OOdev/Project/Docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seanw\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="72" documentId="8_{1F1BB6E4-5E4C-419A-A307-DEDCF059C5B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C175370B-391C-43E6-9D79-E508E6BCEB8D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0690D482-8925-4409-881A-BAA9F8671DDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-503" yWindow="105" windowWidth="10313" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="67">
   <si>
     <t xml:space="preserve">This contributions document must be agreed by all team members </t>
   </si>
@@ -231,6 +231,9 @@
   </si>
   <si>
     <t>first meet</t>
+  </si>
+  <si>
+    <t>CRCcards</t>
   </si>
 </sst>
 </file>
@@ -336,10 +339,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -641,8 +640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="46" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -915,6 +914,9 @@
       <c r="A17" t="s">
         <v>16</v>
       </c>
+      <c r="B17" t="s">
+        <v>66</v>
+      </c>
       <c r="F17" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
